--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\NLP\doc\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1416CE53-4571-498A-8F64-F44A2149C2AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236C5938-EAEB-4388-92CD-62CD5DCF7F3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="16605" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="2355" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -112,6 +112,22 @@
       </rPr>
       <t>:10-17:30</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及正则表达式和一些包的介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习词性标注，命名实体识别，关键词提取等概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装nltk并调试，了解nltk的具体功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,13 +254,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,14 +607,14 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -618,7 +634,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -632,7 +648,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -644,16 +660,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -662,42 +678,62 @@
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -856,9 +892,10 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236C5938-EAEB-4388-92CD-62CD5DCF7F3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7BBF2-FCCB-4BF9-A0DA-2CD62795B3F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="2355" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -128,6 +128,34 @@
   </si>
   <si>
     <t>安装nltk并调试，了解nltk的具体功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了解Anaconda以及配置环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用Anaconda创建虚拟环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习falsk框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -694,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -736,22 +764,42 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="5">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -891,11 +939,42 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
+    <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7BBF2-FCCB-4BF9-A0DA-2CD62795B3F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A76080-4E3B-459D-BF58-2BD4726727DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -156,6 +156,26 @@
   </si>
   <si>
     <t>未完待续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将falsk的基础学习完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Jenkins构建项目帮助文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue师兄的前端框架</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -634,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -802,22 +822,42 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -970,11 +1010,12 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A76080-4E3B-459D-BF58-2BD4726727DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB836D-A7EC-4B53-8F8B-A7B2DF20A1CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -176,6 +176,25 @@
   </si>
   <si>
     <t>学习vue师兄的前端框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue框架的基本语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合师兄的axee-frontend项目学习vue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
+  <si>
+    <t>未完待续</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +674,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A16" sqref="A16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -860,22 +879,42 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
@@ -1010,7 +1049,8 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB836D-A7EC-4B53-8F8B-A7B2DF20A1CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FCD810-1E2A-4FF4-AACE-12FE232986E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>未完待续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部开会总结上周的问题和部署接下来的工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用LTP的语义角色标注接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续调用接口，学习vue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用还是失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,10 +351,10 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -715,7 +739,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -741,7 +765,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -753,7 +777,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -779,7 +803,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -791,7 +815,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -817,7 +841,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -829,7 +853,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -855,7 +879,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -867,7 +891,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -893,7 +917,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -905,7 +929,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -917,22 +941,42 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -1049,7 +1093,8 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FCD810-1E2A-4FF4-AACE-12FE232986E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B4645-1F60-40DE-A1F3-4344ECB02F94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>日期</t>
   </si>
@@ -219,6 +219,22 @@
   </si>
   <si>
     <t>调用还是失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue，编写界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用LTP的语义角色标注接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -979,22 +995,42 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
@@ -1093,7 +1129,8 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B4645-1F60-40DE-A1F3-4344ECB02F94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAC7BC-CF4B-4F54-A78D-C01C137E02E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>日期</t>
   </si>
@@ -235,6 +235,26 @@
   </si>
   <si>
     <t>失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和小组一块讨论调用接口问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化前端界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端界面收尾，准备开始实现前后端交互</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1033,22 +1053,42 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
@@ -1129,7 +1169,8 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAC7BC-CF4B-4F54-A78D-C01C137E02E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923F542-42A3-48C5-A189-46FFBE536C68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1185" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>日期</t>
   </si>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>前端界面收尾，准备开始实现前后端交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前后端交互</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +738,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1091,20 +1095,30 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="5">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
@@ -1169,7 +1183,8 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A21"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923F542-42A3-48C5-A189-46FFBE536C68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D497FF93-B8DE-41C7-8F00-C290E8F16A37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="1185" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>日期</t>
   </si>
@@ -259,6 +259,22 @@
   </si>
   <si>
     <t>实现前后端交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端数据交互和跨域问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端的数据能传到后端，但是后端传不到前端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -746,7 +762,7 @@
     <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1104,23 +1120,33 @@
       <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
@@ -1184,16 +1210,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D497FF93-B8DE-41C7-8F00-C290E8F16A37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591951CF-6EA1-4A5F-AB6D-4443D0F4817D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1185" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>日期</t>
   </si>
@@ -274,7 +274,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>打通</t>
+    <t>处理前端接收到的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨域解决，数据接收存在问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端可以互相传递数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合vue和接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看清华大学自然语言研究报告，普及知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议，安排下一周工作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1145,44 +1173,84 @@
         <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="5">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
@@ -1209,17 +1277,19 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591951CF-6EA1-4A5F-AB6D-4443D0F4817D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BBBA28-6AE3-4D26-B97F-464FCA6CD6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1278,6 +1278,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
@@ -1285,11 +1290,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BBBA28-6AE3-4D26-B97F-464FCA6CD6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CEB37-91C0-4F83-AB89-FFCED2BFE65B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="2310" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>日期</t>
   </si>
@@ -303,6 +303,26 @@
   </si>
   <si>
     <t>小组会议，安排下一周工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周例会，明确本周任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解CRF的基本原理和安装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试用CRF进行分词标注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，待续</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +802,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1253,22 +1273,42 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="5">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
@@ -1277,12 +1317,8 @@
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
+  <mergeCells count="13">
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
@@ -1290,6 +1326,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CEB37-91C0-4F83-AB89-FFCED2BFE65B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9533FB-E5A9-40A3-8218-497D52E90E5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2310" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>日期</t>
   </si>
@@ -318,11 +318,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>尝试用CRF进行分词标注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成，待续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用CRF完成中文分词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Deep Semantic Role Labeling with Self-Attention真难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试用CRF进行分词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习用crf进行标注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1304,20 +1328,599 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>43676</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+    <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,21 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9533FB-E5A9-40A3-8218-497D52E90E5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970FB2D-B410-4829-ADC0-F24FC06D3EEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2310" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="2220" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t>日期</t>
   </si>
@@ -347,6 +354,26 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年7月31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对crf进行语义角色标注陷入迷茫之中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过向学长了解终于明白其中的流程并从学长那里得到语料库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始搭建基本框架进行语义角色标注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +510,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +862,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D42"/>
+      <selection activeCell="A43" sqref="A43:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1373,22 +1409,43 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2" t="e">
+        <f>--C44</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
@@ -1919,7 +1976,8 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A19:A21"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970FB2D-B410-4829-ADC0-F24FC06D3EEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BC63EF-087B-4544-AE93-9D50FE776186}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="2220" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>日期</t>
   </si>
@@ -357,10 +357,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019年7月31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对crf进行语义角色标注陷入迷茫之中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -374,6 +370,26 @@
   </si>
   <si>
     <t>开始搭建基本框架进行语义角色标注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善自己搭建的框架并解决问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先通过死数据并拿到数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再用前端输入数据进行传递，但是后端接收不到数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,6 +519,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,15 +532,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -889,7 +902,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -903,7 +916,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -915,7 +928,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -929,7 +942,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -941,7 +954,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -953,7 +966,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>43663</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -967,7 +980,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -979,7 +992,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -991,7 +1004,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1005,7 +1018,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1017,7 +1030,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1042,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1043,7 +1056,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1068,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1080,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1081,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1093,7 +1106,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1118,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1119,7 +1132,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1131,7 +1144,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1156,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1157,7 +1170,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1182,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1194,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1195,7 +1208,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1220,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1232,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1233,7 +1246,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1258,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +1270,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1271,7 +1284,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1283,7 +1296,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1308,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
+      <c r="A34" s="7">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1309,7 +1322,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1334,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1346,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
+      <c r="A37" s="7">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1347,7 +1360,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1372,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1384,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
+      <c r="A40" s="7">
         <v>43676</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1385,7 +1398,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1410,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1409,14 +1422,14 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>76</v>
+      <c r="A43" s="7">
+        <v>43677</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2" t="e">
         <f>--C44</f>
@@ -1424,46 +1437,66 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>43678</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
@@ -1976,17 +2009,18 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A28:A30"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BC63EF-087B-4544-AE93-9D50FE776186}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BACB80-69F4-4498-984E-C8E25B40600C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="2220" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -390,6 +390,26 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过一番努力，通过自己的模型，分词等终于拿到数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理json数据并整理gitlab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过看视频，写代码学习pytorch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,12 +539,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +546,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -902,7 +922,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -916,7 +936,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -928,7 +948,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -942,7 +962,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -954,7 +974,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,7 +986,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -980,7 +1000,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -992,7 +1012,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1024,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1018,7 +1038,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1050,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1062,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1056,7 +1076,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1088,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1100,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1094,7 +1114,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1126,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1138,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>43668</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1132,7 +1152,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1144,7 +1164,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1176,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1170,7 +1190,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1202,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1214,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1208,7 +1228,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1240,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1252,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1246,7 +1266,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1278,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1290,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1284,7 +1304,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1316,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1308,7 +1328,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1322,7 +1342,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1354,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1366,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1360,7 +1380,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1392,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1404,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>43676</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1398,7 +1418,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1410,7 +1430,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1442,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>43677</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1437,7 +1457,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +1469,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1481,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>43678</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1475,7 +1495,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1507,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1499,22 +1519,42 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="5">
+        <v>43679</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
@@ -2009,7 +2049,9 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
@@ -2025,7 +2067,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BACB80-69F4-4498-984E-C8E25B40600C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA89862-E190-4A1A-9E80-F6CEF8AF81C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2220" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="2610" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>日期</t>
   </si>
@@ -410,6 +410,25 @@
   </si>
   <si>
     <t>待续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过看视频，写代码学习pytorch</t>
+  </si>
+  <si>
+    <t>简单了解神经网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没学完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将模型部署到服务器上，修改model路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1557,22 +1576,42 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="5">
+        <v>43680</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
@@ -2049,7 +2088,9 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A46:A48"/>
@@ -2066,7 +2107,6 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA89862-E190-4A1A-9E80-F6CEF8AF81C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292B6DC-CA3E-40D0-B9C2-85289F9BC9DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="2610" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>日期</t>
   </si>
@@ -429,6 +429,30 @@
   </si>
   <si>
     <t>将模型部署到服务器上，修改model路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口出现问题，重新修改服务器上的model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看pytorch官方文档了解基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未看完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在B站上找资源学习pytorch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础知识还没了解完，太多了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +938,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:A54"/>
+      <selection activeCell="A55" sqref="A55:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1614,22 +1638,42 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="5">
+        <v>43682</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
@@ -2088,25 +2132,26 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292B6DC-CA3E-40D0-B9C2-85289F9BC9DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D38931-E44D-4B15-9D3E-B5E2ABA6ABD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="2610" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>日期</t>
   </si>
@@ -453,6 +453,38 @@
   </si>
   <si>
     <t>基础知识还没了解完，太多了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习numpy和pandas，了解了基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组开会总结工作，并安排任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会，各个小组展示了各自的进度，老师做下一步指示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解CNN基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是并不是很了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习CNN,RNN神经网络</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -937,15 +969,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1676,40 +1708,80 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="5">
+        <v>43683</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="5">
+        <v>43684</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
@@ -2132,18 +2204,20 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A22:A24"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D38931-E44D-4B15-9D3E-B5E2ABA6ABD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64F493-F8A9-4A82-8D5B-7F30B695BB26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="2610" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -485,6 +485,30 @@
   </si>
   <si>
     <t>继续学习CNN,RNN神经网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在pytorch官网学习那些小例子，发现对神经网络还是不理解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">去GitHub上找了一些关于pytorch nlp的，发现根本看不同             </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面的架构都不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想看看Deep Learning那本书，看能不能从这本书上找到突破口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚开始看</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -969,16 +993,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="55.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1784,22 +1807,42 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="A64" s="5">
+        <v>43685</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
@@ -2204,7 +2247,13 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:A3"/>
@@ -2221,11 +2270,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64F493-F8A9-4A82-8D5B-7F30B695BB26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D8F8BD-1A32-4538-B413-989280B8AFCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="2610" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="1665" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>日期</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>刚开始看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习深度学习框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单学习回归问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -993,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D66"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1845,19 +1857,33 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="A67" s="5">
+        <v>43686</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2247,12 +2273,9 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
+  <mergeCells count="23">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -2269,7 +2292,11 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D8F8BD-1A32-4538-B413-989280B8AFCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684AF026-03A2-43BD-81D5-B493C1CFCD8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1665" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="120">
   <si>
     <t>日期</t>
   </si>
@@ -521,6 +521,14 @@
   </si>
   <si>
     <t>简单学习回归问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习手写数字识别的例子，了解其流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1014,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:A69"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1889,19 +1897,27 @@
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="5">
+        <v>43687</v>
+      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2273,24 +2289,25 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A55:A57"/>
+  <mergeCells count="24">
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A49:A51"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684AF026-03A2-43BD-81D5-B493C1CFCD8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F963F-1822-4316-91EB-E40958981F4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
   <si>
     <t>日期</t>
   </si>
@@ -529,6 +529,77 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会总结，明确下一步的学习路线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Deeplearning那本书，刚开始线性代数部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习Deeplearing，线性代数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文看起来进度太缓慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阅读Enhancing Neural Sequence Labeling 
+with Position-Aware Self-Attention
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难理解又是英文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习线性代数范数等内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本搞懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续阅读Enhancing Neural Sequence Labeling 
+with Position-Aware Self-Attention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听上海大学的一个教授讲解人工智能领域的应用和趋势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受颇深</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1013,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1923,76 +1994,132 @@
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2"/>
+      <c r="A73" s="5">
+        <v>43711</v>
+      </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
+      <c r="A76" s="5">
+        <v>43712</v>
+      </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+    <row r="77" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="7"/>
+      <c r="B78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
+      <c r="A79" s="5">
+        <v>43713</v>
+      </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+      <c r="B81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
+      <c r="A82" s="5">
+        <v>43714</v>
+      </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7"/>
+      <c r="B84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
@@ -2289,7 +2416,19 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
@@ -2297,11 +2436,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A37:A39"/>
@@ -2311,9 +2445,6 @@
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F963F-1822-4316-91EB-E40958981F4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0913A5D-9F44-461F-B4A1-3D5AFCBF4EF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
   <si>
     <t>日期</t>
   </si>
@@ -600,6 +600,40 @@
   </si>
   <si>
     <t>感受颇深</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午开会，总结上周任务，布置接下来任务，重现
+Deep Semantic Role Labeling with Self-Attention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始阅读Deep Semantic Role Labeling with 
+Self-Attention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题很大，很多都看不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给小组布置任务，准备接下来一周的工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应代码逐步分析论文内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我注意力机制还是没看懂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -732,16 +766,16 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,19 +1118,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="55.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="55.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43661</v>
       </c>
@@ -1124,8 +1158,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43662</v>
       </c>
@@ -1150,8 +1184,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1162,8 +1196,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43663</v>
       </c>
@@ -1188,8 +1222,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1200,8 +1234,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43664</v>
       </c>
@@ -1226,8 +1260,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1238,8 +1272,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43665</v>
       </c>
@@ -1264,8 +1298,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1276,8 +1310,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43666</v>
       </c>
@@ -1302,8 +1336,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1314,8 +1348,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43668</v>
       </c>
@@ -1340,8 +1374,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1352,8 +1386,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43669</v>
       </c>
@@ -1378,8 +1412,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1390,8 +1424,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43670</v>
       </c>
@@ -1416,8 +1450,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1428,8 +1462,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43671</v>
       </c>
@@ -1454,8 +1488,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
@@ -1466,8 +1500,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1512,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43672</v>
       </c>
@@ -1492,8 +1526,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1538,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43673</v>
       </c>
@@ -1530,8 +1564,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1542,8 +1576,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43675</v>
       </c>
@@ -1568,8 +1602,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1580,8 +1614,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43676</v>
       </c>
@@ -1606,8 +1640,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
+    <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1618,8 +1652,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43677</v>
       </c>
@@ -1645,8 +1679,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1657,8 +1691,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
+    <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1703,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43678</v>
       </c>
@@ -1683,8 +1717,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
       <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1695,8 +1729,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
       <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43679</v>
       </c>
@@ -1721,8 +1755,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
+    <row r="50" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
       <c r="B50" s="3" t="s">
         <v>16</v>
       </c>
@@ -1733,8 +1767,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7"/>
+    <row r="51" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
       <c r="B51" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1779,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43680</v>
       </c>
@@ -1759,8 +1793,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6"/>
+    <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
       <c r="B53" s="3" t="s">
         <v>16</v>
       </c>
@@ -1771,8 +1805,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7"/>
+    <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
       <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43682</v>
       </c>
@@ -1797,8 +1831,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
+    <row r="56" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
       <c r="B56" s="3" t="s">
         <v>16</v>
       </c>
@@ -1809,8 +1843,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
       <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43683</v>
       </c>
@@ -1835,8 +1869,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="6"/>
+    <row r="59" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
       <c r="B59" s="3" t="s">
         <v>16</v>
       </c>
@@ -1847,8 +1881,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1893,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43684</v>
       </c>
@@ -1873,8 +1907,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6"/>
+    <row r="62" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
       <c r="B62" s="3" t="s">
         <v>16</v>
       </c>
@@ -1885,8 +1919,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="7"/>
+    <row r="63" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
       <c r="B63" s="3" t="s">
         <v>5</v>
       </c>
@@ -1897,7 +1931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43685</v>
       </c>
@@ -1911,8 +1945,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6"/>
+    <row r="65" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
       <c r="B65" s="3" t="s">
         <v>16</v>
       </c>
@@ -1923,8 +1957,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="7"/>
+    <row r="66" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
       <c r="B66" s="3" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1969,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43686</v>
       </c>
@@ -1949,8 +1983,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6"/>
+    <row r="68" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
@@ -1961,13 +1995,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7"/>
+    <row r="69" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43687</v>
       </c>
@@ -1975,8 +2009,8 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6"/>
+    <row r="71" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
       <c r="B71" s="3" t="s">
         <v>16</v>
       </c>
@@ -1987,13 +2021,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>43711</v>
       </c>
@@ -2001,8 +2035,8 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
+    <row r="74" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
       <c r="B74" s="2" t="s">
         <v>120</v>
       </c>
@@ -2013,8 +2047,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="7"/>
+    <row r="75" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
       <c r="B75" s="2" t="s">
         <v>123</v>
       </c>
@@ -2025,7 +2059,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43712</v>
       </c>
@@ -2033,8 +2067,8 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6"/>
+    <row r="77" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
       <c r="B77" s="2" t="s">
         <v>120</v>
       </c>
@@ -2045,8 +2079,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="7"/>
+    <row r="78" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
       <c r="B78" s="2" t="s">
         <v>123</v>
       </c>
@@ -2057,7 +2091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>43713</v>
       </c>
@@ -2065,8 +2099,8 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="8"/>
+    <row r="80" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
       <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
@@ -2077,8 +2111,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
+    <row r="81" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
       <c r="B81" s="2" t="s">
         <v>123</v>
       </c>
@@ -2089,7 +2123,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>43714</v>
       </c>
@@ -2097,8 +2131,8 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="6"/>
+    <row r="83" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
       <c r="B83" s="2" t="s">
         <v>120</v>
       </c>
@@ -2109,8 +2143,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="7"/>
+    <row r="84" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
       <c r="B84" s="2" t="s">
         <v>123</v>
       </c>
@@ -2121,302 +2155,362 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>43718</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>43719</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="A46:A48"/>
@@ -2424,27 +2518,9 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2458,7 +2534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2472,7 +2548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0913A5D-9F44-461F-B4A1-3D5AFCBF4EF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E67AC6-F7D2-474B-9717-0D7E2A45F366}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
   <si>
     <t>日期</t>
   </si>
@@ -634,6 +634,57 @@
   </si>
   <si>
     <t>自我注意力机制还是没看懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将论文看完，但是并不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始转向代码，发现没有头绪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解代码，并准备数据集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现他的介绍写的很简略，找不到数据集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想先把他跑起来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题好多，好多资料找不到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到了如何处理数据集</t>
+  </si>
+  <si>
+    <t>但是不知道如何执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到了一些可以直接用的数据集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在处理脚本的时候有很多路径问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论自己所理解的，以及对目前问题的解决方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -766,16 +817,16 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:A90"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1210,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1236,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +1248,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1274,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1286,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1312,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1324,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1350,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1362,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1388,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1400,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1426,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1438,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1464,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1425,7 +1476,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1502,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1514,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1540,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1552,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1527,7 +1578,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1590,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1616,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1628,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1654,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1666,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1692,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1653,7 +1704,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1731,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1743,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1769,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1781,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1807,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="3" t="s">
         <v>16</v>
       </c>
@@ -1768,7 +1819,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="3" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1845,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="3" t="s">
         <v>16</v>
       </c>
@@ -1806,7 +1857,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1883,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="3" t="s">
         <v>16</v>
       </c>
@@ -1844,7 +1895,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
@@ -1870,7 +1921,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="3" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +1933,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1959,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="3" t="s">
         <v>16</v>
       </c>
@@ -1920,7 +1971,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="3" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1997,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="3" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +2009,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +2035,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
@@ -1996,7 +2047,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2010,7 +2061,7 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="3" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2073,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2036,7 +2087,7 @@
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="2" t="s">
         <v>120</v>
       </c>
@@ -2048,7 +2099,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="2" t="s">
         <v>123</v>
       </c>
@@ -2068,7 +2119,7 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
         <v>120</v>
       </c>
@@ -2080,7 +2131,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="2" t="s">
         <v>123</v>
       </c>
@@ -2100,7 +2151,7 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
@@ -2112,7 +2163,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="2" t="s">
         <v>123</v>
       </c>
@@ -2132,7 +2183,7 @@
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="2" t="s">
         <v>120</v>
       </c>
@@ -2144,7 +2195,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="2" t="s">
         <v>123</v>
       </c>
@@ -2170,7 +2221,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="3" t="s">
         <v>16</v>
       </c>
@@ -2182,7 +2233,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="3" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2259,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="3" t="s">
         <v>16</v>
       </c>
@@ -2220,7 +2271,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
@@ -2232,57 +2283,111 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="A91" s="5">
+        <v>43720</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="5">
+        <v>43723</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="A97" s="5">
+        <v>43724</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,7 +2595,24 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A37:A39"/>
@@ -2499,18 +2621,6 @@
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="A46:A48"/>
@@ -2519,8 +2629,6 @@
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E67AC6-F7D2-474B-9717-0D7E2A45F366}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F76E70-D400-45E3-9097-521ECF1AEEB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="165">
   <si>
     <t>日期</t>
   </si>
@@ -685,6 +685,34 @@
   </si>
   <si>
     <t>小组讨论自己所理解的，以及对目前问题的解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现数据集还是不能用，脚本调试失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本总是找不到路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了Attention机制的理解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本理解了他的工作流程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1169,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2388,25 +2416,47 @@
       <c r="C99" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="A100" s="5">
+        <v>43725</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
@@ -2595,17 +2645,17 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+  <mergeCells count="34">
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A31:A33"/>
@@ -2613,19 +2663,20 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A70:A72"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F76E70-D400-45E3-9097-521ECF1AEEB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24DD7C0-0E1E-4F21-A239-1DAFED1F39BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="170">
   <si>
     <t>日期</t>
   </si>
@@ -713,6 +713,26 @@
   </si>
   <si>
     <t>基本理解了他的工作流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一些别的科目的作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续跑Deep_SRL,先跑出数据集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一点进步，但是程序里有错误发现自己改不了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1218,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2459,22 +2479,42 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="A103" s="5">
+        <v>43726</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
@@ -2645,7 +2685,26 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A100:A102"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A58:A60"/>
@@ -2656,30 +2715,12 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A91:A93"/>
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24DD7C0-0E1E-4F21-A239-1DAFED1F39BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0B4013-3A4B-4403-A298-5805DFBEFE28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="186">
   <si>
     <t>日期</t>
   </si>
@@ -733,6 +733,69 @@
   </si>
   <si>
     <t>有一点进步，但是程序里有错误发现自己改不了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到了一些已经分好标签的数据集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是在运行文件的脚本的时候发现少一个文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直在尝试能够处理自己的数据集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是总是读取不到文件里的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一些其他课程的作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+  </si>
+  <si>
+    <t>用几句处理好的数据尝试能不能将他们的词和标签分开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所给代码里的文档脚本不会运行，找不到路径和文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习pytorch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想通过学习pytorch看能否看懂其中代码，然后尝试修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了pytorch的基本数据类型函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>又看了一下午注意力机制的代码，想找点突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组开总结会议</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1217,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2517,109 +2580,209 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="A106" s="5">
+        <v>43727</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="A109" s="5">
+        <v>43728</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="A112" s="5">
+        <v>43729</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="A115" s="5">
+        <v>43730</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="A118" s="5">
+        <v>43731</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
+      <c r="A121" s="5"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="6"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2685,27 +2848,19 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A100:A102"/>
+  <mergeCells count="41">
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A85:A87"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -2715,12 +2870,26 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A100:A102"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0B4013-3A4B-4403-A298-5805DFBEFE28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE2C77D-F999-40AA-8D65-CF580C0E18D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="190">
   <si>
     <t>日期</t>
   </si>
@@ -796,6 +796,22 @@
   </si>
   <si>
     <t>小组开总结会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午老师开会布置接下来的任务，抓紧补基础知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组重新开会，总结以前所有的工作，并做自我反思</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1280,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2770,22 +2786,42 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="A121" s="5">
+        <v>43732</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="B122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
@@ -2849,18 +2885,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -2870,26 +2913,19 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A85:A87"/>
     <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE2C77D-F999-40AA-8D65-CF580C0E18D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D1A0D2-0AA3-4B7B-8793-5F5E307ABCC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
   <si>
     <t>日期</t>
   </si>
@@ -812,6 +812,23 @@
   </si>
   <si>
     <t>小组重新开会，总结以前所有的工作，并做自我反思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课和写了一些其他科目的作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了pytorch中的Broadcasting自动扩张
+实现矩阵的相加操作，矩阵的合并与分割</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1296,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2824,22 +2841,42 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="A124" s="5">
+        <v>43733</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
@@ -2884,26 +2921,21 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
+  <mergeCells count="42">
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -2913,19 +2945,25 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A100:A102"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D1A0D2-0AA3-4B7B-8793-5F5E307ABCC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BBCC00-5B74-4F97-B311-1270896EC0D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="197">
   <si>
     <t>日期</t>
   </si>
@@ -829,6 +829,18 @@
   <si>
     <t>学习了pytorch中的Broadcasting自动扩张
 实现矩阵的相加操作，矩阵的合并与分割</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习pytorch中的数学计算，矩阵相乘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1314,7 +1326,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:A126"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2879,22 +2891,42 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="A127" s="5">
+        <v>43733</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="129" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
@@ -2921,21 +2953,27 @@
       <c r="D133" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A70:A72"/>
+  <mergeCells count="43">
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -2945,25 +2983,20 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BBCC00-5B74-4F97-B311-1270896EC0D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45384BF-34BD-45A0-8F23-58E07D6E0301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="207">
   <si>
     <t>日期</t>
   </si>
@@ -841,6 +841,47 @@
   </si>
   <si>
     <t>学习pytorch中的数学计算，矩阵相乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了pytorch中的属性统计方法，如：min，mean，prod
+，等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习激活函数，通过谷歌搜索明白了什么是激活函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始学习激活函数的各个函数如：sigmoid，tanh，ReLU，等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然知道了这些，但是用起来还是存在很大问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了loss，明白了loss的基本原理和计算方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习单层感知机，但是学完之后感觉很朦胧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习链式法则，明白了为什么要使用链式法则以及他的基本用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了反向传播</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1323,17 +1364,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="55.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2929,36 +2971,175 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="A130" s="5">
+        <v>43734</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="133" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="A133" s="5">
+        <v>43735</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+      <c r="B134" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7"/>
+      <c r="B135" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <v>43736</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="B137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7"/>
+      <c r="B138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>43737</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+      <c r="B141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
+  <mergeCells count="47">
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A100:A102"/>
@@ -2975,28 +3156,15 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
     <mergeCell ref="A91:A93"/>
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45384BF-34BD-45A0-8F23-58E07D6E0301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CFED8D-E799-46CC-8569-F4D70F2578DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="213">
   <si>
     <t>日期</t>
   </si>
@@ -884,12 +885,49 @@
     <t>学习了反向传播</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>学习了刘研小组的评测任务代码，因为模型是一样的，重点理解整个
+流程，从数据的输入到处理转化，再到输出，有了更深的认识</t>
+  </si>
+  <si>
+    <t>自己调试代码，一步步debug他的数据形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课，然后老师开会总结，明确接下来的任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找一些关于语义角色标注加入attention机制和bert的代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>研究老师给的一篇关于attention的论文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +952,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -995,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1070,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3116,8 +3168,118 @@
         <v>198</v>
       </c>
     </row>
+    <row r="142" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>43773</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+      <c r="B143" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
+      <c r="B144" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>43774</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
+      <c r="B147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A130:A132"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A138"/>
@@ -3130,41 +3292,9 @@
     <mergeCell ref="A112:A114"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A85:A87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CFED8D-E799-46CC-8569-F4D70F2578DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED503D6-1A7D-4DBD-A0FB-5F9A10F6B89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="216">
   <si>
     <t>日期</t>
   </si>
@@ -898,10 +898,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>找一些关于语义角色标注加入attention机制和bert的代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -920,6 +916,22 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有熟悉了RNN，以及RNN_leayer，然后学了lstm的具体转化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">继续学习了Lstm的相关知识 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在pytorch官网深入学习RNN和LSTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM未完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1069,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,12 +1085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1455,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1460,7 +1469,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1481,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1486,7 +1495,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1507,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1519,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>43663</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1524,7 +1533,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1545,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1557,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1562,7 +1571,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +1583,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1595,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1600,7 +1609,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1612,7 +1621,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1633,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1638,7 +1647,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1659,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1671,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>43668</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1676,7 +1685,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1688,7 +1697,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1700,7 +1709,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1714,7 +1723,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1735,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1747,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1752,7 +1761,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1764,7 +1773,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1785,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1790,7 +1799,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
@@ -1802,7 +1811,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1823,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1828,7 +1837,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +1849,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1852,7 +1861,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1866,7 +1875,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1887,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1899,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1904,7 +1913,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1925,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1937,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>43676</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1942,7 +1951,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1963,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1975,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>43677</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1981,7 +1990,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +2002,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2005,7 +2014,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>43678</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2019,7 +2028,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2031,7 +2040,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2052,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>43679</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2057,7 +2066,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>16</v>
       </c>
@@ -2069,7 +2078,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2090,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>43680</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2095,7 +2104,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2116,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2119,7 +2128,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>43682</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2133,7 +2142,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>16</v>
       </c>
@@ -2145,7 +2154,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2166,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>43683</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2171,7 +2180,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2183,7 +2192,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2204,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>43684</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2209,7 +2218,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2230,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="3" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2242,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>43685</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2247,7 +2256,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>16</v>
       </c>
@@ -2259,7 +2268,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2271,7 +2280,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>43686</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2285,7 +2294,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
@@ -2297,13 +2306,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="6">
         <v>43687</v>
       </c>
       <c r="B70" s="3"/>
@@ -2311,7 +2320,7 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>16</v>
       </c>
@@ -2323,13 +2332,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="6">
         <v>43711</v>
       </c>
       <c r="B73" s="2"/>
@@ -2337,7 +2346,7 @@
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="2" t="s">
         <v>120</v>
       </c>
@@ -2349,7 +2358,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="2" t="s">
         <v>123</v>
       </c>
@@ -2361,7 +2370,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="6">
         <v>43712</v>
       </c>
       <c r="B76" s="2"/>
@@ -2369,7 +2378,7 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="2" t="s">
         <v>120</v>
       </c>
@@ -2381,7 +2390,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="2" t="s">
         <v>123</v>
       </c>
@@ -2393,7 +2402,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="6">
         <v>43713</v>
       </c>
       <c r="B79" s="2"/>
@@ -2401,7 +2410,7 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
@@ -2413,7 +2422,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="2" t="s">
         <v>123</v>
       </c>
@@ -2425,7 +2434,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="6">
         <v>43714</v>
       </c>
       <c r="B82" s="2"/>
@@ -2433,7 +2442,7 @@
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="2" t="s">
         <v>120</v>
       </c>
@@ -2445,7 +2454,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="2" t="s">
         <v>123</v>
       </c>
@@ -2457,7 +2466,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="6">
         <v>43718</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -2471,7 +2480,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="3" t="s">
         <v>16</v>
       </c>
@@ -2483,7 +2492,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2504,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="6">
         <v>43719</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -2509,7 +2518,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="3" t="s">
         <v>16</v>
       </c>
@@ -2521,7 +2530,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
@@ -2533,7 +2542,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="6">
         <v>43720</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -2547,7 +2556,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="3" t="s">
         <v>16</v>
       </c>
@@ -2559,7 +2568,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="3" t="s">
         <v>5</v>
       </c>
@@ -2571,7 +2580,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="6">
         <v>43723</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -2581,7 +2590,7 @@
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="3" t="s">
         <v>16</v>
       </c>
@@ -2593,7 +2602,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="3" t="s">
         <v>5</v>
       </c>
@@ -2605,7 +2614,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="6">
         <v>43724</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -2619,7 +2628,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="3" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2640,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="3" t="s">
         <v>5</v>
       </c>
@@ -2643,7 +2652,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100" s="6">
         <v>43725</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -2657,7 +2666,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="3" t="s">
         <v>16</v>
       </c>
@@ -2669,7 +2678,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="3" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2690,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="6">
         <v>43726</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -2695,7 +2704,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="3" t="s">
         <v>16</v>
       </c>
@@ -2707,7 +2716,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="3" t="s">
         <v>5</v>
       </c>
@@ -2719,7 +2728,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+      <c r="A106" s="6">
         <v>43727</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -2733,7 +2742,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
@@ -2745,7 +2754,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="3" t="s">
         <v>5</v>
       </c>
@@ -2757,7 +2766,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="6">
         <v>43728</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -2771,7 +2780,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="3" t="s">
         <v>16</v>
       </c>
@@ -2783,7 +2792,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="3" t="s">
         <v>176</v>
       </c>
@@ -2795,7 +2804,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+      <c r="A112" s="6">
         <v>43729</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -2809,7 +2818,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="3" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2830,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="3" t="s">
         <v>5</v>
       </c>
@@ -2833,7 +2842,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="A115" s="6">
         <v>43730</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -2847,7 +2856,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,7 +2868,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="3" t="s">
         <v>5</v>
       </c>
@@ -2871,7 +2880,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+      <c r="A118" s="6">
         <v>43731</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -2885,7 +2894,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2906,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="3" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +2918,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="A121" s="6">
         <v>43732</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -2923,7 +2932,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="3" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2944,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
@@ -2947,7 +2956,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+      <c r="A124" s="6">
         <v>43733</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -2961,7 +2970,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="3" t="s">
         <v>16</v>
       </c>
@@ -2973,7 +2982,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="3" t="s">
         <v>5</v>
       </c>
@@ -2985,7 +2994,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="A127" s="6">
         <v>43733</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -2999,7 +3008,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
+      <c r="A128" s="7"/>
       <c r="B128" s="3" t="s">
         <v>16</v>
       </c>
@@ -3011,7 +3020,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="3" t="s">
         <v>5</v>
       </c>
@@ -3023,7 +3032,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+      <c r="A130" s="6">
         <v>43734</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -3037,7 +3046,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="3" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3058,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="3" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3070,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+      <c r="A133" s="6">
         <v>43735</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -3075,7 +3084,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="3" t="s">
         <v>16</v>
       </c>
@@ -3087,13 +3096,13 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+      <c r="A136" s="6">
         <v>43736</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -3107,7 +3116,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="3" t="s">
         <v>16</v>
       </c>
@@ -3119,7 +3128,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="3" t="s">
         <v>5</v>
       </c>
@@ -3131,7 +3140,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="A139" s="6">
         <v>43737</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -3145,7 +3154,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
+      <c r="A140" s="7"/>
       <c r="B140" s="3" t="s">
         <v>16</v>
       </c>
@@ -3157,7 +3166,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="3" t="s">
         <v>5</v>
       </c>
@@ -3169,7 +3178,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+      <c r="A142" s="6">
         <v>43773</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -3183,11 +3192,11 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -3195,7 +3204,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="3" t="s">
         <v>5</v>
       </c>
@@ -3207,7 +3216,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+      <c r="A145" s="6">
         <v>43774</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -3216,36 +3225,112 @@
       <c r="C145" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
+      <c r="B146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-      <c r="B146" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="148" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>43775</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
+      <c r="B149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>43776</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
+      <c r="B152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="51">
     <mergeCell ref="A142:A144"/>
     <mergeCell ref="A145:A147"/>
     <mergeCell ref="A37:A39"/>
@@ -3258,6 +3343,17 @@
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A31:A33"/>
@@ -3265,20 +3361,13 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A100:A102"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A151:A153"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A130:A132"/>
     <mergeCell ref="A133:A135"/>
@@ -3293,8 +3382,6 @@
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A118:A120"/>
     <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A100:A102"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201701024217张志毅.xlsx
+++ b/doc/log/201701024217张志毅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED503D6-1A7D-4DBD-A0FB-5F9A10F6B89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6C7C33-92BF-40AD-8582-ABB67F4B44E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="225">
   <si>
     <t>日期</t>
   </si>
@@ -932,6 +932,42 @@
   </si>
   <si>
     <t>LSTM未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在git找了一个加入attention的语义角色任务，然后处理相关数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于调通代码，但是出现结果全为0,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜测数据获取存在问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试改进他的代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，发现对tf知识了解太少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续调试代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会总结上周的，然后布置本周工作，对attention吃透，最好加入self-attention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习tf的关于lstm的相关知识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1425,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:A153"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3329,8 +3365,160 @@
         <v>215</v>
       </c>
     </row>
+    <row r="154" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>43779</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="B155" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>43780</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>43781</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+      <c r="B161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="54">
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A142:A144"/>
     <mergeCell ref="A145:A147"/>
     <mergeCell ref="A37:A39"/>
@@ -3347,41 +3535,6 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A73:A75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
